--- a/data/fig4_text_FINAL.xlsx
+++ b/data/fig4_text_FINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\REGIONS_GLOBALECONOMY\results\RO analysis\REV3\graphs\country profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\Homedir4\Souzapacheco_T\Projects\Delphine\ro2023-country-pages\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE8742B-D470-45BB-832E-FFAE54DB06FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83807E7-8C98-4A2E-A86B-D14083F79FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Chile, between 2013 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the industrial sector reduced the labour productivity gap between regions. At the same time, the share of workers in the tradable services sector remained approximately stable across all regions.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Czech Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
-  </si>
-  <si>
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Germany, between 2001 and 2020, the share of workers in the industrial sector went down in regions that used to be located in the upper half of the labour productivity distribution while it remained stable in the rest. Hence, the evolution of employment shares in the industrial sector reduced the labour productivity gap between regions. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In France, between 2001 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In United Kingdom, between 2004 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector reduced the labour productivity gap between regions.</t>
-  </si>
-  <si>
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Greece, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Mexico, between 2005 and 2020, the share of workers in the industrial sector remained approximately stable across all regions. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Netherlands, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that were already in the lower half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the industrial sector widened the labour productivity gap between regions while the opposite was true for tradable services.</t>
-  </si>
-  <si>
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Norway, between 2008 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the industrial sector reduced the labour productivity gap between regions. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Portugal, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Slovak Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
-  </si>
-  <si>
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Slovenia, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
   </si>
   <si>
@@ -211,7 +199,19 @@
     <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Turkey, between 2009 and 2020, the share of workers in the industrial sector went up in regions that used to be located in the lower half of the labour productivity distribution while it remained stable in the rest. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In United States, between 2001 and 2020, the share of workers in the industrial sector remained approximately stable across all regions. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the Czech Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the United Kingdom, between 2004 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector reduced the labour productivity gap between regions.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the Netherlands, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that were already in the lower half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the industrial sector widened the labour productivity gap between regions while the opposite was true for tradable services.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the Slovak Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the United States, between 2001 and 2020, the share of workers in the industrial sector remained approximately stable across all regions. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
